--- a/1_Crudas/contribucion_fiscal_cruda_2025-04-14.xlsx
+++ b/1_Crudas/contribucion_fiscal_cruda_2025-04-14.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DY79"/>
+  <dimension ref="A1:DZ93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1003,6 +1003,11 @@
           <t>dep1e</t>
         </is>
       </c>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>ind2e</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -41616,6 +41621,7326 @@
       <c r="DQ79" t="inlineStr">
         <is>
           <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>657282451</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>6e6d73b40f8444388109c7a5263cef17</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>2025-04-14T14:16:16.402-05:00</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2025-04-14T14:37:03.820-05:00</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>-2.120532 -79.909886 36.5 13.348999977111816</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>phonenumber not found</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>-2.120523 -79.909825 36.70000076293945 22.216999053955078</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>7-142034</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA80" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="AB80" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="AC80" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="AD80" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="AE80" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="AF80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AG80" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AH80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI80" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AJ80" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="AK80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AL80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AM80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AN80" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AP80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AR80" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AS80" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="AT80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AU80" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AV80" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AW80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AX80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AY80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AZ80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BA80" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="BB80" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BC80" t="inlineStr">
+        <is>
+          <t>2 4</t>
+        </is>
+      </c>
+      <c r="BD80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BE80" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="BF80" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="BG80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BH80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BI80" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="BJ80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BK80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BL80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BM80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BN80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BO80" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="BP80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BQ80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BR80" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="BS80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BT80" t="inlineStr">
+        <is>
+          <t>605</t>
+        </is>
+      </c>
+      <c r="BU80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BV80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BW80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BX80" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="CC80" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="CD80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CG80" t="inlineStr">
+        <is>
+          <t>vnrxGZhvyCcbBbdoNSv4YG</t>
+        </is>
+      </c>
+      <c r="CH80" t="inlineStr">
+        <is>
+          <t>uuid:23296405-ab97-43af-9ad9-f7c32f5f98dd</t>
+        </is>
+      </c>
+      <c r="CI80" t="inlineStr">
+        <is>
+          <t>apTvGCaDwt2EKosqmDhXFG</t>
+        </is>
+      </c>
+      <c r="CJ80" t="inlineStr">
+        <is>
+          <t>23296405-ab97-43af-9ad9-f7c32f5f98dd</t>
+        </is>
+      </c>
+      <c r="CL80" t="inlineStr">
+        <is>
+          <t>submitted_via_web</t>
+        </is>
+      </c>
+      <c r="CN80" t="inlineStr">
+        <is>
+          <t>2025-04-14T19:37:06</t>
+        </is>
+      </c>
+      <c r="CV80" t="inlineStr">
+        <is>
+          <t>persona_1</t>
+        </is>
+      </c>
+      <c r="CW80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CX80" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="CY80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CZ80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DA80" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="DB80" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="DC80" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="DD80" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="DE80" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="DF80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DG80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DH80" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="DI80" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="DJ80" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="DK80" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="DR80" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="DS80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DT80" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="DU80" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="DW80" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="DX80" t="inlineStr">
+        <is>
+          <t>Gastronomía</t>
+        </is>
+      </c>
+      <c r="DY80" t="inlineStr">
+        <is>
+          <t>Sirve la comida</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>657282836</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>6e6d73b40f8444388109c7a5263cef17</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2025-04-14T13:58:55.870-05:00</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2025-04-14T14:38:40.015-05:00</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>-0.997728 -80.760933 49.29999923706055 9.800000190734863</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>phonenumber not found</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>-0.997457 -80.760476 49.29999923706055 20.152000427246094</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>12-142626</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA81" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="AB81" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="AC81" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="AD81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE81" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="AF81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AG81" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AH81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ81" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AK81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AL81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AM81" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AN81" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AP81" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AQ81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AR81" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AS81" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="AT81" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AU81" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AV81" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AW81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AX81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AY81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AZ81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BA81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BB81" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BC81" t="inlineStr">
+        <is>
+          <t>2 6</t>
+        </is>
+      </c>
+      <c r="BD81" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="BE81" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="BF81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BG81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BH81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BI81" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="BJ81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BK81" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="BL81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BM81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BN81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BO81" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="BP81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BQ81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BR81" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="BS81" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="BT81" t="inlineStr">
+        <is>
+          <t>407</t>
+        </is>
+      </c>
+      <c r="BU81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BV81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BW81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BX81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BY81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BZ81" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="CA81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CB81" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="CC81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CD81" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="CG81" t="inlineStr">
+        <is>
+          <t>vnrxGZhvyCcbBbdoNSv4YG</t>
+        </is>
+      </c>
+      <c r="CH81" t="inlineStr">
+        <is>
+          <t>uuid:30763dc4-8204-44f3-b277-1b0d7a2d74ea</t>
+        </is>
+      </c>
+      <c r="CI81" t="inlineStr">
+        <is>
+          <t>apTvGCaDwt2EKosqmDhXFG</t>
+        </is>
+      </c>
+      <c r="CJ81" t="inlineStr">
+        <is>
+          <t>30763dc4-8204-44f3-b277-1b0d7a2d74ea</t>
+        </is>
+      </c>
+      <c r="CL81" t="inlineStr">
+        <is>
+          <t>submitted_via_web</t>
+        </is>
+      </c>
+      <c r="CN81" t="inlineStr">
+        <is>
+          <t>2025-04-14T19:38:42</t>
+        </is>
+      </c>
+      <c r="CV81" t="inlineStr">
+        <is>
+          <t>persona_1</t>
+        </is>
+      </c>
+      <c r="CW81" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="CX81" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="CY81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CZ81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DA81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DD81" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="DE81" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="DF81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DG81" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="DH81" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="DI81" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="DK81" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="DL81" t="inlineStr">
+        <is>
+          <t>2016-07-05</t>
+        </is>
+      </c>
+      <c r="DM81" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="DN81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DO81" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="DP81" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="DQ81" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="DZ81" t="inlineStr">
+        <is>
+          <t>Cuenta propia</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>657286298</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>6e6d73b40f8444388109c7a5263cef17</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2025-04-14T14:41:26.092-05:00</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2025-04-14T15:00:50.039-05:00</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>-0.997593 -80.760644 49.29999923706055 33.39500045776367</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>phonenumber not found</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>-0.998041 -80.760719 49.29999923706055 63.92100143432617</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>21-145913</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA82" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AB82" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="AC82" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="AD82" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AE82" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="AF82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AG82" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AH82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI82" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AJ82" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AK82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AL82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AM82" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="AN82" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AP82" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="AQ82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AR82" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AS82" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="AT82" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AU82" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AV82" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AW82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AX82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AY82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AZ82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BA82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BB82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BC82" t="inlineStr">
+        <is>
+          <t>2 4</t>
+        </is>
+      </c>
+      <c r="BD82" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="BE82" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="BF82" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="BG82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BH82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BI82" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="BJ82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BK82" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="BL82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BM82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BN82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BO82" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="BP82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BQ82" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="BR82" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="BS82" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="BT82" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="BU82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BV82" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="BW82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BX82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BY82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BZ82" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="CA82" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="CB82" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="CC82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CD82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CG82" t="inlineStr">
+        <is>
+          <t>vnrxGZhvyCcbBbdoNSv4YG</t>
+        </is>
+      </c>
+      <c r="CH82" t="inlineStr">
+        <is>
+          <t>uuid:77e314b7-84fe-46f0-80b3-a4e270fc6a31</t>
+        </is>
+      </c>
+      <c r="CI82" t="inlineStr">
+        <is>
+          <t>apTvGCaDwt2EKosqmDhXFG</t>
+        </is>
+      </c>
+      <c r="CJ82" t="inlineStr">
+        <is>
+          <t>77e314b7-84fe-46f0-80b3-a4e270fc6a31</t>
+        </is>
+      </c>
+      <c r="CL82" t="inlineStr">
+        <is>
+          <t>submitted_via_web</t>
+        </is>
+      </c>
+      <c r="CN82" t="inlineStr">
+        <is>
+          <t>2025-04-14T20:01:02</t>
+        </is>
+      </c>
+      <c r="CV82" t="inlineStr">
+        <is>
+          <t>persona_1</t>
+        </is>
+      </c>
+      <c r="CW82" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="CX82" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="CY82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CZ82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DA82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DD82" t="inlineStr">
+        <is>
+          <t>4 5</t>
+        </is>
+      </c>
+      <c r="DE82" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="DF82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DG82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DH82" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="DI82" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="DK82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DR82" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="DS82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DT82" t="inlineStr">
+        <is>
+          <t>1350</t>
+        </is>
+      </c>
+      <c r="DU82" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="DW82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>657286876</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>6e6d73b40f8444388109c7a5263cef17</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2025-04-14T14:22:17.777-05:00</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2025-04-14T15:06:02.412-05:00</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>-2.194247 -79.885898 24.30000114440918 13.854000091552734</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>phonenumber not found</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>-2.193709 -79.885962 25.30000114440918 12.083000183105469</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>8-145402</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Y83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA83" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AB83" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="AC83" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="AD83" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AE83" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="AF83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AG83" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AH83" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="AI83" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AJ83" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AK83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AL83" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="AM83" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AN83" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AP83" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AQ83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AR83" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AS83" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="AT83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AU83" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AV83" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AW83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AX83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AY83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AZ83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BA83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BB83" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BC83" t="inlineStr">
+        <is>
+          <t>2 4 6 7</t>
+        </is>
+      </c>
+      <c r="BD83" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="BE83" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="BF83" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="BG83" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="BH83" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="BI83" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="BJ83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BK83" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="BL83" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="BM83" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="BN83" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="BO83" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="BP83" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="BQ83" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="BR83" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="BS83" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="BT83" t="inlineStr">
+        <is>
+          <t>543</t>
+        </is>
+      </c>
+      <c r="BU83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BV83" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="BW83" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="BX83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BY83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BZ83" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="CA83" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="CB83" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="CC83" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="CD83" t="inlineStr">
+        <is>
+          <t>1 4</t>
+        </is>
+      </c>
+      <c r="CG83" t="inlineStr">
+        <is>
+          <t>vnrxGZhvyCcbBbdoNSv4YG</t>
+        </is>
+      </c>
+      <c r="CH83" t="inlineStr">
+        <is>
+          <t>uuid:ebaaddab-70a9-4944-ab67-c8d53d4cf6c6</t>
+        </is>
+      </c>
+      <c r="CI83" t="inlineStr">
+        <is>
+          <t>apTvGCaDwt2EKosqmDhXFG</t>
+        </is>
+      </c>
+      <c r="CJ83" t="inlineStr">
+        <is>
+          <t>ebaaddab-70a9-4944-ab67-c8d53d4cf6c6</t>
+        </is>
+      </c>
+      <c r="CL83" t="inlineStr">
+        <is>
+          <t>submitted_via_web</t>
+        </is>
+      </c>
+      <c r="CN83" t="inlineStr">
+        <is>
+          <t>2025-04-14T20:06:04</t>
+        </is>
+      </c>
+      <c r="CV83" t="inlineStr">
+        <is>
+          <t>persona_1</t>
+        </is>
+      </c>
+      <c r="CW83" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="CX83" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="CY83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CZ83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DA83" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="DB83" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="DC83" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="DD83" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="DE83" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="DF83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DG83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DH83" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="DI83" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="DJ83" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="DK83" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="DR83" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="DS83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DT83" t="inlineStr">
+        <is>
+          <t>1260</t>
+        </is>
+      </c>
+      <c r="DU83" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="DW83" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>657293042</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>6e6d73b40f8444388109c7a5263cef17</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>2025-04-14T15:34:35.851-05:00</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2025-04-14T16:08:00.177-05:00</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>phonenumber not found</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>-2.193548 -79.88637 25.30000114440918 19.111000061035156</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>6-160609</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Y84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA84" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AB84" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AC84" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AD84" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AE84" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="AF84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AG84" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AH84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI84" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AJ84" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AK84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AL84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AM84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AN84" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AP84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AR84" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AS84" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="AT84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AU84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AV84" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AW84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AX84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AY84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AZ84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BA84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BB84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BC84" t="inlineStr">
+        <is>
+          <t>2 4 7</t>
+        </is>
+      </c>
+      <c r="BD84" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="BE84" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="BF84" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="BG84" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="BH84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BI84" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="BJ84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BK84" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="BL84" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="BM84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BN84" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="BO84" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="BP84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BQ84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BR84" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="BS84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BT84" t="inlineStr">
+        <is>
+          <t>336</t>
+        </is>
+      </c>
+      <c r="BU84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BV84" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="BW84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BX84" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="CC84" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="CD84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CG84" t="inlineStr">
+        <is>
+          <t>vnrxGZhvyCcbBbdoNSv4YG</t>
+        </is>
+      </c>
+      <c r="CH84" t="inlineStr">
+        <is>
+          <t>uuid:dc4338b2-02b8-4f36-8484-5d59855fb1ea</t>
+        </is>
+      </c>
+      <c r="CI84" t="inlineStr">
+        <is>
+          <t>apTvGCaDwt2EKosqmDhXFG</t>
+        </is>
+      </c>
+      <c r="CJ84" t="inlineStr">
+        <is>
+          <t>dc4338b2-02b8-4f36-8484-5d59855fb1ea</t>
+        </is>
+      </c>
+      <c r="CL84" t="inlineStr">
+        <is>
+          <t>submitted_via_web</t>
+        </is>
+      </c>
+      <c r="CN84" t="inlineStr">
+        <is>
+          <t>2025-04-14T21:08:02</t>
+        </is>
+      </c>
+      <c r="CV84" t="inlineStr">
+        <is>
+          <t>persona_1</t>
+        </is>
+      </c>
+      <c r="CW84" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="CX84" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="CY84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CZ84" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="DA84" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="DD84" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="DE84" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="DF84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DG84" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="DH84" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="DI84" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="DK84" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="DL84" t="inlineStr">
+        <is>
+          <t>2019-04-07</t>
+        </is>
+      </c>
+      <c r="DM84" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="DN84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DO84" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="DP84" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="DQ84" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="DX84" t="inlineStr">
+        <is>
+          <t>Venta de ropa interior</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>657294223</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>6e6d73b40f8444388109c7a5263cef17</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>2025-04-11T17:28:27.051-05:00</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2025-04-14T11:06:45.403-05:00</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>-3.500761 -79.966389 43.39999771118164 20</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>phonenumber not found</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>-3.459416 -79.959638 27.80000114440918 26.947999954223633</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>4-110148</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W85" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Y85" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Z85" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AA85" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="AB85" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="AC85" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="AD85" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="AE85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AG85" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="AH85" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="AI85" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AJ85" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AK85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AL85" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="AM85" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="AN85" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AP85" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="AQ85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AR85" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AS85" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="AT85" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AU85" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AV85" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AW85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AX85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AY85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AZ85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BA85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BB85" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="BC85" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BD85" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="BE85" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="BF85" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="BG85" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="BH85" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="BI85" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="BJ85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BK85" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="BL85" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="BM85" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="BN85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BO85" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="BP85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BQ85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BR85" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="BS85" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="BT85" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="BU85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BV85" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="BW85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BX85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BY85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BZ85" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="CA85" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="CB85" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="CC85" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="CD85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CE85" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="CF85" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="CG85" t="inlineStr">
+        <is>
+          <t>vdpEhvMycVk9tHvRpaMkz5</t>
+        </is>
+      </c>
+      <c r="CH85" t="inlineStr">
+        <is>
+          <t>uuid:e665d1b1-23af-45e4-abbe-f2e6322a6c09</t>
+        </is>
+      </c>
+      <c r="CI85" t="inlineStr">
+        <is>
+          <t>apTvGCaDwt2EKosqmDhXFG</t>
+        </is>
+      </c>
+      <c r="CJ85" t="inlineStr">
+        <is>
+          <t>e665d1b1-23af-45e4-abbe-f2e6322a6c09</t>
+        </is>
+      </c>
+      <c r="CL85" t="inlineStr">
+        <is>
+          <t>submitted_via_web</t>
+        </is>
+      </c>
+      <c r="CN85" t="inlineStr">
+        <is>
+          <t>2025-04-14T21:28:06</t>
+        </is>
+      </c>
+      <c r="CV85" t="inlineStr">
+        <is>
+          <t>persona_1</t>
+        </is>
+      </c>
+      <c r="CW85" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="CX85" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="CY85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CZ85" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="DA85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DD85" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="DE85" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="DF85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DG85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DH85" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="DI85" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="DK85" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="DR85" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="DS85" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="DT85" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="DU85" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="DW85" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="DY85" t="inlineStr">
+        <is>
+          <t>Cajera</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>657294223</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>6e6d73b40f8444388109c7a5263cef17</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>2025-04-11T17:28:27.051-05:00</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2025-04-14T11:06:45.403-05:00</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>-3.500761 -79.966389 43.39999771118164 20</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>phonenumber not found</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>-3.459416 -79.959638 27.80000114440918 26.947999954223633</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>4-110148</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W86" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Y86" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Z86" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AA86" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="AB86" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="AC86" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="AD86" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="AE86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AG86" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="AH86" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="AI86" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AJ86" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AK86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AL86" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="AM86" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="AN86" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AP86" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="AQ86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AR86" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AS86" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="AT86" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AU86" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AV86" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AW86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AX86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AY86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AZ86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BA86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BB86" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="BC86" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BD86" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="BE86" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="BF86" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="BG86" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="BH86" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="BI86" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="BJ86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BK86" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="BL86" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="BM86" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="BN86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BO86" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="BP86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BQ86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BR86" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="BS86" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="BT86" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="BU86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BV86" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="BW86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BX86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BY86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BZ86" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="CA86" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="CB86" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="CC86" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="CD86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CE86" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="CF86" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="CG86" t="inlineStr">
+        <is>
+          <t>vdpEhvMycVk9tHvRpaMkz5</t>
+        </is>
+      </c>
+      <c r="CH86" t="inlineStr">
+        <is>
+          <t>uuid:e665d1b1-23af-45e4-abbe-f2e6322a6c09</t>
+        </is>
+      </c>
+      <c r="CI86" t="inlineStr">
+        <is>
+          <t>apTvGCaDwt2EKosqmDhXFG</t>
+        </is>
+      </c>
+      <c r="CJ86" t="inlineStr">
+        <is>
+          <t>e665d1b1-23af-45e4-abbe-f2e6322a6c09</t>
+        </is>
+      </c>
+      <c r="CL86" t="inlineStr">
+        <is>
+          <t>submitted_via_web</t>
+        </is>
+      </c>
+      <c r="CN86" t="inlineStr">
+        <is>
+          <t>2025-04-14T21:28:06</t>
+        </is>
+      </c>
+      <c r="CV86" t="inlineStr">
+        <is>
+          <t>persona_2</t>
+        </is>
+      </c>
+      <c r="CW86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CX86" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="CY86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CZ86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DA86" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="DD86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DE86" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="DF86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DG86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DH86" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="DI86" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="DK86" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="DR86" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="DS86" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="DT86" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="DU86" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="DW86" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="DX86" t="inlineStr">
+        <is>
+          <t>Barbero</t>
+        </is>
+      </c>
+      <c r="DY86" t="inlineStr">
+        <is>
+          <t>Encargado de la barbería</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>657294224</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>6e6d73b40f8444388109c7a5263cef17</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>2025-04-14T11:06:45.639-05:00</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2025-04-14T11:55:40.606-05:00</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>-3.459449 -79.959565 27.80000114440918 19.792999267578125</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>phonenumber not found</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>-3.459447 -79.959595 27.80000114440918 20.29599952697754</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>4-113036</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W87" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Y87" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Z87" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AA87" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="AB87" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="AC87" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="AD87" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="AE87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF87" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AG87" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="AH87" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="AI87" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="AJ87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK87" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AL87" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="AM87" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="AN87" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AP87" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="AQ87" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AR87" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AS87" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="AT87" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AU87" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AV87" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AW87" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AX87" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AY87" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AZ87" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BA87" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="BB87" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="BC87" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BD87" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="BE87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BF87" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="BG87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BH87" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="BI87" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="BJ87" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BK87" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="BL87" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="BM87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BN87" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="BO87" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="BP87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BQ87" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="BR87" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="BS87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BT87" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="BU87" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BV87" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="BW87" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="BX87" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="CC87" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="CD87" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="CE87" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="CF87" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="CG87" t="inlineStr">
+        <is>
+          <t>vdpEhvMycVk9tHvRpaMkz5</t>
+        </is>
+      </c>
+      <c r="CH87" t="inlineStr">
+        <is>
+          <t>uuid:81bae4d1-ff7f-49dc-a555-e1974239b70b</t>
+        </is>
+      </c>
+      <c r="CI87" t="inlineStr">
+        <is>
+          <t>apTvGCaDwt2EKosqmDhXFG</t>
+        </is>
+      </c>
+      <c r="CJ87" t="inlineStr">
+        <is>
+          <t>81bae4d1-ff7f-49dc-a555-e1974239b70b</t>
+        </is>
+      </c>
+      <c r="CL87" t="inlineStr">
+        <is>
+          <t>submitted_via_web</t>
+        </is>
+      </c>
+      <c r="CN87" t="inlineStr">
+        <is>
+          <t>2025-04-14T21:28:07</t>
+        </is>
+      </c>
+      <c r="CV87" t="inlineStr">
+        <is>
+          <t>persona_1</t>
+        </is>
+      </c>
+      <c r="CW87" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="CX87" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="CY87" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CZ87" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="DA87" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DD87" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="DE87" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DF87" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DG87" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="DH87" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="DI87" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="DK87" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="DL87" t="inlineStr">
+        <is>
+          <t>2021-05-31</t>
+        </is>
+      </c>
+      <c r="DM87" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="DN87" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DO87" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="DP87" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="DQ87" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="DX87" t="inlineStr">
+        <is>
+          <t>Peluquería</t>
+        </is>
+      </c>
+      <c r="DZ87" t="inlineStr">
+        <is>
+          <t>Baja</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>657294224</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>6e6d73b40f8444388109c7a5263cef17</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>2025-04-14T11:06:45.639-05:00</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2025-04-14T11:55:40.606-05:00</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>-3.459449 -79.959565 27.80000114440918 19.792999267578125</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>phonenumber not found</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>-3.459447 -79.959595 27.80000114440918 20.29599952697754</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>4-113036</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T88" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W88" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Y88" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Z88" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AA88" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="AB88" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="AC88" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="AD88" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="AE88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF88" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AG88" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="AH88" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="AI88" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="AJ88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK88" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AL88" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="AM88" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="AN88" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AP88" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="AQ88" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AR88" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AS88" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="AT88" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AU88" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AV88" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AW88" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AX88" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AY88" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AZ88" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BA88" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="BB88" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="BC88" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BD88" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="BE88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BF88" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="BG88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BH88" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="BI88" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="BJ88" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BK88" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="BL88" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="BM88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BN88" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="BO88" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="BP88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BQ88" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="BR88" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="BS88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BT88" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="BU88" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BV88" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="BW88" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="BX88" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="CC88" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="CD88" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="CE88" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="CF88" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="CG88" t="inlineStr">
+        <is>
+          <t>vdpEhvMycVk9tHvRpaMkz5</t>
+        </is>
+      </c>
+      <c r="CH88" t="inlineStr">
+        <is>
+          <t>uuid:81bae4d1-ff7f-49dc-a555-e1974239b70b</t>
+        </is>
+      </c>
+      <c r="CI88" t="inlineStr">
+        <is>
+          <t>apTvGCaDwt2EKosqmDhXFG</t>
+        </is>
+      </c>
+      <c r="CJ88" t="inlineStr">
+        <is>
+          <t>81bae4d1-ff7f-49dc-a555-e1974239b70b</t>
+        </is>
+      </c>
+      <c r="CL88" t="inlineStr">
+        <is>
+          <t>submitted_via_web</t>
+        </is>
+      </c>
+      <c r="CN88" t="inlineStr">
+        <is>
+          <t>2025-04-14T21:28:07</t>
+        </is>
+      </c>
+      <c r="CV88" t="inlineStr">
+        <is>
+          <t>persona_2</t>
+        </is>
+      </c>
+      <c r="CW88" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CX88" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="CY88" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CZ88" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="DA88" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="DD88" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="DE88" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DF88" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>657294224</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>6e6d73b40f8444388109c7a5263cef17</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>2025-04-14T11:06:45.639-05:00</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2025-04-14T11:55:40.606-05:00</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>-3.459449 -79.959565 27.80000114440918 19.792999267578125</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>phonenumber not found</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>-3.459447 -79.959595 27.80000114440918 20.29599952697754</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>4-113036</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W89" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Y89" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Z89" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AA89" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="AB89" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="AC89" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="AD89" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="AE89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AG89" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="AH89" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="AI89" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="AJ89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AL89" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="AM89" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="AN89" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AP89" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="AQ89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AR89" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AS89" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="AT89" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AU89" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AV89" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AW89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AX89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AY89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AZ89" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BA89" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="BB89" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="BC89" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BD89" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="BE89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BF89" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="BG89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BH89" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="BI89" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="BJ89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BK89" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="BL89" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="BM89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BN89" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="BO89" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="BP89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BQ89" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="BR89" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="BS89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BT89" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="BU89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BV89" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="BW89" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="BX89" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="CC89" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="CD89" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="CE89" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="CF89" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="CG89" t="inlineStr">
+        <is>
+          <t>vdpEhvMycVk9tHvRpaMkz5</t>
+        </is>
+      </c>
+      <c r="CH89" t="inlineStr">
+        <is>
+          <t>uuid:81bae4d1-ff7f-49dc-a555-e1974239b70b</t>
+        </is>
+      </c>
+      <c r="CI89" t="inlineStr">
+        <is>
+          <t>apTvGCaDwt2EKosqmDhXFG</t>
+        </is>
+      </c>
+      <c r="CJ89" t="inlineStr">
+        <is>
+          <t>81bae4d1-ff7f-49dc-a555-e1974239b70b</t>
+        </is>
+      </c>
+      <c r="CL89" t="inlineStr">
+        <is>
+          <t>submitted_via_web</t>
+        </is>
+      </c>
+      <c r="CN89" t="inlineStr">
+        <is>
+          <t>2025-04-14T21:28:07</t>
+        </is>
+      </c>
+      <c r="CV89" t="inlineStr">
+        <is>
+          <t>persona_3</t>
+        </is>
+      </c>
+      <c r="CW89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CX89" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="CY89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CZ89" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="DA89" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="DD89" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="DE89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DF89" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>657294225</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>6e6d73b40f8444388109c7a5263cef17</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>2025-04-14T11:55:40.862-05:00</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2025-04-14T12:21:27.132-05:00</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>-3.459497 -79.959587 27.80000114440918 22.482999801635742</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>phonenumber not found</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>-3.459469 -79.959601 27.80000114440918 8.300000190734863</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>4-115748</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC90" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AD90" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AE90" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="AF90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AG90" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AH90" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI90" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="AJ90" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="AK90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AL90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AM90" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AN90" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AP90" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="AQ90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AR90" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AT90" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AU90" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AV90" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AW90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AX90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AY90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AZ90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BA90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BB90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BC90" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BD90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BE90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BF90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BG90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BH90" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="BI90" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="BJ90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BK90" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="BL90" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="BM90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BN90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BO90" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="BP90" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="BQ90" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="BR90" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="BS90" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="BT90" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="BU90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BV90" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="BW90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BX90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BY90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BZ90" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="CA90" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="CB90" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="CC90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CD90" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="CE90" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="CF90" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="CG90" t="inlineStr">
+        <is>
+          <t>vdpEhvMycVk9tHvRpaMkz5</t>
+        </is>
+      </c>
+      <c r="CH90" t="inlineStr">
+        <is>
+          <t>uuid:09c2a115-f857-44d1-80a4-07ed1aa2d681</t>
+        </is>
+      </c>
+      <c r="CI90" t="inlineStr">
+        <is>
+          <t>apTvGCaDwt2EKosqmDhXFG</t>
+        </is>
+      </c>
+      <c r="CJ90" t="inlineStr">
+        <is>
+          <t>09c2a115-f857-44d1-80a4-07ed1aa2d681</t>
+        </is>
+      </c>
+      <c r="CL90" t="inlineStr">
+        <is>
+          <t>submitted_via_web</t>
+        </is>
+      </c>
+      <c r="CN90" t="inlineStr">
+        <is>
+          <t>2025-04-14T21:28:08</t>
+        </is>
+      </c>
+      <c r="CT90" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="CV90" t="inlineStr">
+        <is>
+          <t>persona_1</t>
+        </is>
+      </c>
+      <c r="CW90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CX90" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="CY90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CZ90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DA90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DD90" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="DE90" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="DF90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DG90" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="DH90" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="DI90" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="DK90" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="DR90" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="DS90" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="DT90" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="DU90" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="DW90" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="DX90" t="inlineStr">
+        <is>
+          <t>Parrillero</t>
+        </is>
+      </c>
+      <c r="DY90" t="inlineStr">
+        <is>
+          <t>Encargado de la parrilla</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>657294529</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>6e6d73b40f8444388109c7a5263cef17</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>2025-04-14T16:22:52.596-05:00</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2025-04-14T16:32:23.218-05:00</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>-0.210768 -78.486549 0.0 17518.04355831578</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>phonenumber not found</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>-0.149606 -78.467898 2870.400146484375 100</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>18-163133</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA91" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="AB91" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="AC91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE91" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="AF91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AG91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI91" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AJ91" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AK91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AL91" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AM91" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AN91" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AP91" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="AQ91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AR91" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AS91" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="AT91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AU91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AV91" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AW91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AX91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AY91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AZ91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BA91" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="BB91" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BC91" t="inlineStr">
+        <is>
+          <t>2 6 7</t>
+        </is>
+      </c>
+      <c r="BD91" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="BE91" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="BF91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BG91" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="BH91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BI91" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="BJ91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BK91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BL91" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="BM91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BN91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BO91" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="BP91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BQ91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BR91" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="BS91" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="BT91" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="BU91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BV91" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="BW91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BX91" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="CC91" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="CD91" t="inlineStr">
+        <is>
+          <t>1 2 4</t>
+        </is>
+      </c>
+      <c r="CE91" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="CF91" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="CG91" t="inlineStr">
+        <is>
+          <t>vdpEhvMycVk9tHvRpaMkz5</t>
+        </is>
+      </c>
+      <c r="CH91" t="inlineStr">
+        <is>
+          <t>uuid:b07f69fa-a0c7-4121-9857-ac1e2ffed8cf</t>
+        </is>
+      </c>
+      <c r="CI91" t="inlineStr">
+        <is>
+          <t>apTvGCaDwt2EKosqmDhXFG</t>
+        </is>
+      </c>
+      <c r="CJ91" t="inlineStr">
+        <is>
+          <t>b07f69fa-a0c7-4121-9857-ac1e2ffed8cf</t>
+        </is>
+      </c>
+      <c r="CL91" t="inlineStr">
+        <is>
+          <t>submitted_via_web</t>
+        </is>
+      </c>
+      <c r="CN91" t="inlineStr">
+        <is>
+          <t>2025-04-14T21:32:31</t>
+        </is>
+      </c>
+      <c r="CV91" t="inlineStr">
+        <is>
+          <t>persona_1</t>
+        </is>
+      </c>
+      <c r="CW91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CX91" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="CY91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CZ91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DA91" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="DD91" t="inlineStr">
+        <is>
+          <t>1 4 5</t>
+        </is>
+      </c>
+      <c r="DE91" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="DF91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DG91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DH91" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="DI91" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="DK91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DR91" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="DS91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DT91" t="inlineStr">
+        <is>
+          <t>650</t>
+        </is>
+      </c>
+      <c r="DU91" t="inlineStr">
+        <is>
+          <t>3 4 5</t>
+        </is>
+      </c>
+      <c r="DV91" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="DW91" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>657295280</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>6e6d73b40f8444388109c7a5263cef17</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>2025-04-14T16:08:00.356-05:00</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2025-04-14T16:41:35.104-05:00</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>-2.1935 -79.886435 25.30000114440918 11.477999687194824</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>phonenumber not found</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>-2.193644 -79.886373 25.200000762939453 15.807999610900879</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>6-164021</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="T92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W92" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Y92" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Z92" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AA92" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="AB92" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="AC92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE92" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="AF92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AG92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AL92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AM92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AN92" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AO92" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AP92" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AQ92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AR92" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AS92" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="AT92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AU92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AV92" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AW92" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AX92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AY92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AZ92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BA92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BB92" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BC92" t="inlineStr">
+        <is>
+          <t>2 4 6 7</t>
+        </is>
+      </c>
+      <c r="BD92" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="BE92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BF92" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="BG92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BH92" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="BI92" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
+      <c r="BJ92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BK92" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="BL92" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="BM92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BN92" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="BO92" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="BP92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BQ92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BR92" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="BS92" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="BT92" t="inlineStr">
+        <is>
+          <t>1128</t>
+        </is>
+      </c>
+      <c r="BU92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BV92" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="BW92" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="BX92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BY92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BZ92" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="CA92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CB92" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="CC92" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="CD92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CG92" t="inlineStr">
+        <is>
+          <t>vnrxGZhvyCcbBbdoNSv4YG</t>
+        </is>
+      </c>
+      <c r="CH92" t="inlineStr">
+        <is>
+          <t>uuid:12f2e15a-c55f-44a4-9cb8-62ec7206899d</t>
+        </is>
+      </c>
+      <c r="CI92" t="inlineStr">
+        <is>
+          <t>apTvGCaDwt2EKosqmDhXFG</t>
+        </is>
+      </c>
+      <c r="CJ92" t="inlineStr">
+        <is>
+          <t>12f2e15a-c55f-44a4-9cb8-62ec7206899d</t>
+        </is>
+      </c>
+      <c r="CL92" t="inlineStr">
+        <is>
+          <t>submitted_via_web</t>
+        </is>
+      </c>
+      <c r="CN92" t="inlineStr">
+        <is>
+          <t>2025-04-14T21:41:37</t>
+        </is>
+      </c>
+      <c r="CV92" t="inlineStr">
+        <is>
+          <t>persona_1</t>
+        </is>
+      </c>
+      <c r="CW92" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="CX92" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="CY92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CZ92" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="DA92" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="DD92" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="DE92" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="DF92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DG92" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="DH92" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="DI92" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="DK92" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="DL92" t="inlineStr">
+        <is>
+          <t>2019-07-17</t>
+        </is>
+      </c>
+      <c r="DM92" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="DN92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DO92" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="DP92" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="DQ92" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="DX92" t="inlineStr">
+        <is>
+          <t>Venta de ropa</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>657295280</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>6e6d73b40f8444388109c7a5263cef17</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>2025-04-14T16:08:00.356-05:00</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2025-04-14T16:41:35.104-05:00</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>-2.1935 -79.886435 25.30000114440918 11.477999687194824</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>phonenumber not found</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>-2.193644 -79.886373 25.200000762939453 15.807999610900879</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>6-164021</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="T93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W93" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Y93" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Z93" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AA93" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="AB93" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="AC93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE93" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="AF93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AG93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AL93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AM93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AN93" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AO93" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AP93" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AQ93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AR93" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AS93" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="AT93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AU93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AV93" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AW93" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AX93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AY93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AZ93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BA93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BB93" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BC93" t="inlineStr">
+        <is>
+          <t>2 4 6 7</t>
+        </is>
+      </c>
+      <c r="BD93" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="BE93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BF93" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="BG93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BH93" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="BI93" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
+      <c r="BJ93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BK93" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="BL93" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="BM93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BN93" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="BO93" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="BP93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BQ93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BR93" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="BS93" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="BT93" t="inlineStr">
+        <is>
+          <t>1128</t>
+        </is>
+      </c>
+      <c r="BU93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BV93" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="BW93" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="BX93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BY93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BZ93" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="CA93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CB93" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="CC93" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="CD93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CG93" t="inlineStr">
+        <is>
+          <t>vnrxGZhvyCcbBbdoNSv4YG</t>
+        </is>
+      </c>
+      <c r="CH93" t="inlineStr">
+        <is>
+          <t>uuid:12f2e15a-c55f-44a4-9cb8-62ec7206899d</t>
+        </is>
+      </c>
+      <c r="CI93" t="inlineStr">
+        <is>
+          <t>apTvGCaDwt2EKosqmDhXFG</t>
+        </is>
+      </c>
+      <c r="CJ93" t="inlineStr">
+        <is>
+          <t>12f2e15a-c55f-44a4-9cb8-62ec7206899d</t>
+        </is>
+      </c>
+      <c r="CL93" t="inlineStr">
+        <is>
+          <t>submitted_via_web</t>
+        </is>
+      </c>
+      <c r="CN93" t="inlineStr">
+        <is>
+          <t>2025-04-14T21:41:37</t>
+        </is>
+      </c>
+      <c r="CV93" t="inlineStr">
+        <is>
+          <t>persona_2</t>
+        </is>
+      </c>
+      <c r="CW93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CX93" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="CY93" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="CZ93" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="DA93" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="DF93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DG93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DH93" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="DI93" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="DK93" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="DR93" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="DS93" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="DT93" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="DU93" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="DW93" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
